--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1주차\일일업무\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05DE42E-47C3-4A7F-B1DC-F0E33DF3AFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EAF465-F9CD-46D9-8481-E5032C16037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
     <sheet name="2023.01.24" sheetId="1" r:id="rId2"/>
     <sheet name="2023.01.25" sheetId="3" r:id="rId3"/>
     <sheet name="2023.01.26" sheetId="4" r:id="rId4"/>
+    <sheet name="2023.01.29" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +88,14 @@
   </si>
   <si>
     <t>프로토타이핑 - 푸터, 비밀번호 찾기 페이지 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 메인페이지 디테일 뷰 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로토 타이핑 하트 클릭시 이미지 변경시 경로 문제 발생 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,7 +1166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB3944D-AA60-4BDC-BBCD-8EE05AE468E1}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1249,6 +1258,189 @@
       <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D88452-5C76-46BD-9413-D74E2442E488}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EAF465-F9CD-46D9-8481-E5032C16037A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A75B9E-4034-47EC-92B7-424BD5DF1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="2023.01.25" sheetId="3" r:id="rId3"/>
     <sheet name="2023.01.26" sheetId="4" r:id="rId4"/>
     <sheet name="2023.01.29" sheetId="5" r:id="rId5"/>
+    <sheet name="2023.01.30" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,10 @@
   </si>
   <si>
     <t xml:space="preserve">프로토 타이핑 하트 클릭시 이미지 변경시 경로 문제 발생 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 메인페이지 디테일 뷰 작업중 - 팝업 이미지가 꺠지는 현상 발견(해결 실패)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,7 +1358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D88452-5C76-46BD-9413-D74E2442E488}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:M5"/>
     </sheetView>
   </sheetViews>
@@ -1420,6 +1425,189 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="16"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0187CB1C-F409-4064-B9EE-BDFFB1E9AC36}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="4" t="s">
         <v>8</v>
       </c>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A75B9E-4034-47EC-92B7-424BD5DF1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA11216-82C5-4C8A-B4A9-F737C94304DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2023.01.26" sheetId="4" r:id="rId4"/>
     <sheet name="2023.01.29" sheetId="5" r:id="rId5"/>
     <sheet name="2023.01.30" sheetId="6" r:id="rId6"/>
+    <sheet name="2023.01.31" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +102,26 @@
   </si>
   <si>
     <t>프로토타이핑 - 메인페이지 디테일 뷰 작업중 - 팝업 이미지가 꺠지는 현상 발견(해결 실패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 메인페이지  위 문제 제외  디테일 뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 검색-(해시태그)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 검색-(아이디) 팝업제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 검색-(아이디) 팝업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1541,7 +1562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0187CB1C-F409-4064-B9EE-BDFFB1E9AC36}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
@@ -1718,4 +1739,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91E8CD-BF27-4C90-B9BD-A20FB19CA43B}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA11216-82C5-4C8A-B4A9-F737C94304DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12EC531-5294-4C1A-87E2-2795D5B3AF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="2023.01.29" sheetId="5" r:id="rId5"/>
     <sheet name="2023.01.30" sheetId="6" r:id="rId6"/>
     <sheet name="2023.01.31" sheetId="7" r:id="rId7"/>
+    <sheet name="2023.02.01" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +123,14 @@
   </si>
   <si>
     <t>프로토타이핑 - 검색-(아이디) 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 검색,탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">프로토타이핑 - 글 작성/수정 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1745,7 +1754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F91E8CD-BF27-4C90-B9BD-A20FB19CA43B}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:M9"/>
     </sheetView>
   </sheetViews>
@@ -1938,4 +1947,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D89B0-019B-4685-9BE2-DF6AA66D533F}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12EC531-5294-4C1A-87E2-2795D5B3AF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED506573-EFBD-485B-9214-5748487CAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="2023.01.30" sheetId="6" r:id="rId6"/>
     <sheet name="2023.01.31" sheetId="7" r:id="rId7"/>
     <sheet name="2023.02.01" sheetId="8" r:id="rId8"/>
+    <sheet name="2023.02.02" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1953,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454D89B0-019B-4685-9BE2-DF6AA66D533F}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -2045,6 +2046,189 @@
       <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E403927-03A3-41AD-88E4-D6B7B686B0ED}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED506573-EFBD-485B-9214-5748487CAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9884AEEE-A03E-496B-A05E-18BA67ECE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="2023.01.31" sheetId="7" r:id="rId7"/>
     <sheet name="2023.02.01" sheetId="8" r:id="rId8"/>
     <sheet name="2023.02.02" sheetId="9" r:id="rId9"/>
+    <sheet name="2023.02.05" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +133,26 @@
   </si>
   <si>
     <t xml:space="preserve">프로토타이핑 - 글 작성/수정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 설정 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 메시지 페이지 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 글 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 관리자 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,6 +845,205 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC598-9762-4866-9096-6C4C24B08AA6}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O9"/>
@@ -2141,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E403927-03A3-41AD-88E4-D6B7B686B0ED}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9884AEEE-A03E-496B-A05E-18BA67ECE1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABA023-EDB6-4C11-AAC3-223AD80C383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2023.02.01" sheetId="8" r:id="rId8"/>
     <sheet name="2023.02.02" sheetId="9" r:id="rId9"/>
     <sheet name="2023.02.05" sheetId="10" r:id="rId10"/>
+    <sheet name="2023.02.06" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +154,10 @@
   </si>
   <si>
     <t>프로토타이핑 관리자 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 글 작성 제외</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CFC598-9762-4866-9096-6C4C24B08AA6}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:M8"/>
     </sheetView>
   </sheetViews>
@@ -1007,6 +1012,193 @@
       <c r="N8" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E2867-E379-48DB-8D36-52E4B8F8EFCE}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ABA023-EDB6-4C11-AAC3-223AD80C383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A1401-6349-4F80-982E-89F5F688100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="2023.02.02" sheetId="9" r:id="rId9"/>
     <sheet name="2023.02.05" sheetId="10" r:id="rId10"/>
     <sheet name="2023.02.06" sheetId="11" r:id="rId11"/>
+    <sheet name="2023.02.07" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1053,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13E2867-E379-48DB-8D36-52E4B8F8EFCE}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:M6"/>
     </sheetView>
   </sheetViews>
@@ -1145,6 +1146,189 @@
       <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0021E1-822A-45FC-A367-ED353C770FE3}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A1401-6349-4F80-982E-89F5F688100B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4A3E0-D07E-471A-AA37-BC86D6BA5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="2023.02.05" sheetId="10" r:id="rId10"/>
     <sheet name="2023.02.06" sheetId="11" r:id="rId11"/>
     <sheet name="2023.02.07" sheetId="12" r:id="rId12"/>
+    <sheet name="2023.02.13" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +160,18 @@
   </si>
   <si>
     <t>프로토타이핑 글 작성 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 메인페이지 디테일 뷰 작업중 - 팝업 이미지가 꺠지는 현상 발견(슬라이드 라이브러리 변경 중)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 작성 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 보기 페이지 작업중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0021E1-822A-45FC-A367-ED353C770FE3}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -1329,6 +1342,193 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619E15C-5448-4CF1-9E2E-1A3E736E78B8}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E4A3E0-D07E-471A-AA37-BC86D6BA5A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBAEB0-9B92-41FF-816B-7FC634D6AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="2023.02.06" sheetId="11" r:id="rId11"/>
     <sheet name="2023.02.07" sheetId="12" r:id="rId12"/>
     <sheet name="2023.02.13" sheetId="13" r:id="rId13"/>
+    <sheet name="2023.02.14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +173,14 @@
   </si>
   <si>
     <t>프로필 보기 페이지 작업중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타이핑 - 메인페이지 디테일 뷰 작업중 - 팝업 이미지가 꺠지는 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 보기 페이지 작업(다른 사람의 프로필은 검색기능 구현후 작성)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1437,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6619E15C-5448-4CF1-9E2E-1A3E736E78B8}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1529,6 +1538,189 @@
       <c r="N5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE351C37-2FA5-4F75-96B3-D0BB2628E3A9}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EBAEB0-9B92-41FF-816B-7FC634D6AD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF6560-5E92-46AA-9A21-4FADB5E70492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="2023.02.07" sheetId="12" r:id="rId12"/>
     <sheet name="2023.02.13" sheetId="13" r:id="rId13"/>
     <sheet name="2023.02.14" sheetId="14" r:id="rId14"/>
+    <sheet name="2023.02.15" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +182,10 @@
   </si>
   <si>
     <t>프로필 보기 페이지 작업(다른 사람의 프로필은 검색기능 구현후 작성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 보기 구현 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1633,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE351C37-2FA5-4F75-96B3-D0BB2628E3A9}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:M5"/>
     </sheetView>
   </sheetViews>
@@ -1703,6 +1708,185 @@
       <c r="N4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFC60B-39D4-472A-A476-A832DD2EBE5E}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFF6560-5E92-46AA-9A21-4FADB5E70492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93761A-92F5-4836-A78E-FC9655197C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="2023.02.13" sheetId="13" r:id="rId13"/>
     <sheet name="2023.02.14" sheetId="14" r:id="rId14"/>
     <sheet name="2023.02.15" sheetId="15" r:id="rId15"/>
+    <sheet name="2023.02.16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +187,14 @@
   </si>
   <si>
     <t>글 보기 구현 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글 보기 대댓글, 댓글 작성 디테일 작업, 댓글 더보기 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 보기 이미지, 댓글</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1821,7 +1830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAFC60B-39D4-472A-A476-A832DD2EBE5E}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -1887,6 +1896,189 @@
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEC6FBD-141B-423B-93A4-B07BE344C1DA}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O4" s="5"/>
     </row>
     <row r="5" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93761A-92F5-4836-A78E-FC9655197C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCCAD9A-84E8-423B-B9A4-CFD6EF6B86FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="2023.02.14" sheetId="14" r:id="rId14"/>
     <sheet name="2023.02.15" sheetId="15" r:id="rId15"/>
     <sheet name="2023.02.16" sheetId="16" r:id="rId16"/>
+    <sheet name="2023.02.19" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="41">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +196,14 @@
   </si>
   <si>
     <t>글 보기 이미지, 댓글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 보기  디테일 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글 보기  댓글 작성, 댓글 나열,  댓글 삭제, 좋아요 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2009,7 +2018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CEC6FBD-141B-423B-93A4-B07BE344C1DA}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:M5"/>
     </sheetView>
   </sheetViews>
@@ -2065,6 +2074,189 @@
       </c>
       <c r="C4" s="11" t="s">
         <v>37</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175F4850-ACDD-44CB-B710-0367B41AE48F}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCCAD9A-84E8-423B-B9A4-CFD6EF6B86FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670E07E-7141-4B1A-8598-BCBAC5791A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="2023.02.15" sheetId="15" r:id="rId15"/>
     <sheet name="2023.02.16" sheetId="16" r:id="rId16"/>
     <sheet name="2023.02.19" sheetId="17" r:id="rId17"/>
+    <sheet name="2023.02.20" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="43">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +205,14 @@
   </si>
   <si>
     <t>글 보기  댓글 작성, 댓글 나열,  댓글 삭제, 좋아요 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글  수정, 게시글 삭제 , 댓글 삭제, 경로 수정, 프로필 호버기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타인의 프로필, 프로필 디테일 작업(팔로우, 팔로워, 프로필사진, 내 소개 적용), 컨트롤러 경로 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2201,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175F4850-ACDD-44CB-B710-0367B41AE48F}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:M5"/>
     </sheetView>
   </sheetViews>
@@ -2289,6 +2298,193 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
       <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5A8529-EB7C-41DC-820F-706EAB906AEE}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">

--- a/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
+++ b/Documents/2. 주간보고서/1. 일일업무/일일 업무 - 주현종.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\팀플\EzenDongstagram\Documents\2. 주간보고서\1. 일일업무\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7670E07E-7141-4B1A-8598-BCBAC5791A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FE43BD-C37E-41F4-ABED-CA33E7F23002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="8" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.01.23" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,8 @@
     <sheet name="2023.02.16" sheetId="16" r:id="rId16"/>
     <sheet name="2023.02.19" sheetId="17" r:id="rId17"/>
     <sheet name="2023.02.20" sheetId="18" r:id="rId18"/>
+    <sheet name="2023.02.21" sheetId="19" r:id="rId19"/>
+    <sheet name="2023.02.22" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="48">
   <si>
     <t>작업 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +215,26 @@
   </si>
   <si>
     <t>타인의 프로필, 프로필 디테일 작업(팔로우, 팔로워, 프로필사진, 내 소개 적용), 컨트롤러 경로 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 페이지 전체, 프로필 편집페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표  ppt 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표를 위한 데이터 추가 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타인이 게시글 수정 클릭 시 수정되는 버그, 게시글 등록 시 글을 적지 않으면 게시글이 깨지는 버그, 게시글 수정에 게시글 정보가 보이는 로직(댓글 공개 여부등등)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2393,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5A8529-EB7C-41DC-820F-706EAB906AEE}">
   <dimension ref="B2:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -2485,6 +2507,185 @@
       <c r="N5" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C682498-1763-491C-8365-5A8555F503C5}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
     <row r="6" spans="2:15">
@@ -2763,6 +2964,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648642FB-BF57-45DD-A4D2-060839BD0756}">
+  <dimension ref="B2:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:15">
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6825A344-3A2F-4F5F-A68A-F2A72A49A88C}">
   <dimension ref="B2:O9"/>
